--- a/dataset-partially-cleaned.xlsx
+++ b/dataset-partially-cleaned.xlsx
@@ -8,19 +8,42 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\vincent\school\210-assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F96236E7-73AD-4F17-9A14-EFD746711EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CAFE99E9-EAB7-4395-B29F-F2FD384EF3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{500AAA08-C5C6-40AC-A2D2-649129EF3390}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset-partially-cleaned" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'dataset-partially-cleaned'!$B$1:$B$51</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'dataset-partially-cleaned'!$B$52:$B$54</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'dataset-partially-cleaned'!$C$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'dataset-partially-cleaned'!$C$2:$C$54</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'dataset-partially-cleaned'!$B$2:$B$51</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'dataset-partially-cleaned'!$G$2:$G$51</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'dataset-partially-cleaned'!$C$1</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'dataset-partially-cleaned'!$C$2:$C$54</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'dataset-partially-cleaned'!$B$1</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'dataset-partially-cleaned'!$C$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'dataset-partially-cleaned'!$C$2:$C$54</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'dataset-partially-cleaned'!$B$1:$B$50</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'dataset-partially-cleaned'!$B$51</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'dataset-partially-cleaned'!$B$1:$B$50</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'dataset-partially-cleaned'!$B$51</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'dataset-partially-cleaned'!$C$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'dataset-partially-cleaned'!$C$2:$C$54</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'dataset-partially-cleaned'!$C$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'dataset-partially-cleaned'!$C$2:$C$54</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="205">
   <si>
     <t>2/25/2025 18:49</t>
   </si>
@@ -569,6 +592,101 @@
   </si>
   <si>
     <t>Food Taste, Brand, Ability to accommodate dietary restrictions, Experience</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Relationship Status</t>
+  </si>
+  <si>
+    <t>Employment Status</t>
+  </si>
+  <si>
+    <t>Estimated monthly income</t>
+  </si>
+  <si>
+    <t>Health Consciousness: 
+1 = Very health conscious
+2 = Somewhat health conscious
+3 = Not health conscious</t>
+  </si>
+  <si>
+    <t>Do you own a cat/dog and do you bring them to restaurants/fast food places if the establishment allows pets?</t>
+  </si>
+  <si>
+    <t>Housing type</t>
+  </si>
+  <si>
+    <t>Household Size (Number of people living in the same household)</t>
+  </si>
+  <si>
+    <t>Are you the primary person that prepares meals in the household if any?</t>
+  </si>
+  <si>
+    <t>What is your preferred type of dining?</t>
+  </si>
+  <si>
+    <t>Average budget per person when eating out</t>
+  </si>
+  <si>
+    <t>Average budget per person when ordering takeout/delivery</t>
+  </si>
+  <si>
+    <t>Approximate cost of groceries per month for home cooking 
+(write "0" if you don't cook at home)</t>
+  </si>
+  <si>
+    <t>Frequency of eating out
+1= all meals every day
+2 = 1 - 2 times per day
+3 = 3 - 6 times per week
+4 = 1 - 2 times per week
+5 = Once every two weeks
+6 = Once a month
+7 = Occasionally/rarely</t>
+  </si>
+  <si>
+    <t>Frequency of ordering takeout/delivery
+1= all meals every day
+2 = 1 - 2 times per day
+3 = 3 - 6 times per week
+4 = 1 - 2 times per week
+5 = Once every two weeks
+6 = Once a month
+7 = Occasionally/rarely</t>
+  </si>
+  <si>
+    <t>Frequency of cooking at home
+1 = all meals every day
+2 = 1 - 2 times per day
+3 = 3 - 6 times per week
+4 = 1 - 2 times per week
+5 = Once every two weeks
+6 = Once a month
+7 = Occasionally/rarely</t>
+  </si>
+  <si>
+    <t>Frequency of buying groceries
+1 = Once a week
+2 = Twice a month
+3 = Once a month
+4 = No definite frequency</t>
+  </si>
+  <si>
+    <t>List your favorite restaurants/fast food chains/delivery or takeout place. Minimum of 5, maximum of 10</t>
+  </si>
+  <si>
+    <t>What are your typical cuisine choices</t>
+  </si>
+  <si>
+    <t>Choose the factors that strongly affect your choice of restaurant/fast food</t>
   </si>
 </sst>
 </file>
@@ -1052,10 +1170,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1112,6 +1233,1397 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Age</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+            </a:rPr>
+            <a:t>Age</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{F99F0D24-D533-451E-A905-580936912EF0}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:v>Age</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.19</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Age</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+            </a:rPr>
+            <a:t>Age</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{F99F0D24-D533-451E-A905-580936912EF0}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:v>Age</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Chart 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFAEA3D6-3281-463E-AAAA-C6B2DDA8D4CA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="523875" y="361950"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-PH" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Chart 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF54C36A-C5D2-4A3E-AB33-1BB5AD025748}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5286375" y="381000"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-PH" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1431,107 +2943,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC568C7-DF5D-4542-92AD-A7B51A4EA2FD}">
-  <dimension ref="A1:V53"/>
+  <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="405" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>62</v>
+        <v>184</v>
+      </c>
+      <c r="C1" t="s">
+        <v>185</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>186</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>187</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1">
-        <v>2</v>
+        <v>188</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>190</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1">
-        <v>2</v>
+        <v>191</v>
+      </c>
+      <c r="J1" t="s">
+        <v>192</v>
       </c>
       <c r="K1" t="s">
-        <v>7</v>
+        <v>193</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1">
-        <v>500</v>
-      </c>
-      <c r="N1">
-        <v>500</v>
-      </c>
-      <c r="O1">
-        <v>7000</v>
-      </c>
-      <c r="P1">
-        <v>4</v>
-      </c>
-      <c r="Q1">
-        <v>3</v>
-      </c>
-      <c r="R1">
-        <v>4</v>
-      </c>
-      <c r="S1">
-        <v>3</v>
+        <v>194</v>
+      </c>
+      <c r="M1" t="s">
+        <v>195</v>
+      </c>
+      <c r="N1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="T1" t="s">
-        <v>9</v>
+        <v>202</v>
       </c>
       <c r="U1" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="V1" t="s">
-        <v>11</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -1546,51 +3060,51 @@
         <v>500</v>
       </c>
       <c r="N2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="P2">
         <v>4</v>
       </c>
       <c r="Q2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S2">
         <v>3</v>
       </c>
       <c r="T2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="U2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="V2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1599,22 +3113,22 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" t="s">
         <v>7</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="M3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -1623,45 +3137,45 @@
         <v>4</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="U3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="V3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
         <v>16</v>
@@ -1670,122 +3184,122 @@
         <v>24</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="L4" t="s">
         <v>25</v>
       </c>
       <c r="M4">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="N4">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
         <v>6</v>
       </c>
-      <c r="Q4">
-        <v>2</v>
-      </c>
-      <c r="R4">
-        <v>7</v>
-      </c>
       <c r="S4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="U4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="V4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
         <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5">
+        <v>700</v>
+      </c>
+      <c r="N5">
+        <v>300</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>6</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
         <v>7</v>
       </c>
-      <c r="L5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5">
-        <v>600</v>
-      </c>
-      <c r="N5">
-        <v>400</v>
-      </c>
-      <c r="O5">
-        <v>6000</v>
-      </c>
-      <c r="P5">
-        <v>5</v>
-      </c>
-      <c r="Q5">
-        <v>6</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
       <c r="S5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="U5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="V5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -1794,7 +3308,7 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1803,57 +3317,57 @@
         <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
         <v>7</v>
-      </c>
-      <c r="K6" t="s">
-        <v>33</v>
       </c>
       <c r="L6" t="s">
         <v>8</v>
       </c>
       <c r="M6">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N6">
         <v>400</v>
       </c>
       <c r="O6">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S6">
         <v>2</v>
       </c>
       <c r="T6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="U6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="V6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1862,41 +3376,41 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
         <v>24</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="L7" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="M7">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="N7">
         <v>400</v>
       </c>
       <c r="O7">
-        <v>1500</v>
+        <v>10000</v>
       </c>
       <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
         <v>3</v>
       </c>
-      <c r="Q7">
-        <v>5</v>
-      </c>
       <c r="R7">
         <v>2</v>
       </c>
@@ -1904,13 +3418,13 @@
         <v>2</v>
       </c>
       <c r="T7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="U7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="V7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -1930,66 +3444,66 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="L8" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="M8">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="N8">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="O8">
-        <v>10000</v>
+        <v>1500</v>
       </c>
       <c r="P8">
         <v>3</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S8">
         <v>2</v>
       </c>
       <c r="T8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="U8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="V8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -1998,7 +3512,7 @@
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -2010,54 +3524,54 @@
         <v>17</v>
       </c>
       <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>300</v>
+      </c>
+      <c r="N9">
+        <v>250</v>
+      </c>
+      <c r="O9">
+        <v>10000</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
         <v>4</v>
       </c>
-      <c r="K9" t="s">
+      <c r="R9">
         <v>7</v>
       </c>
-      <c r="L9" t="s">
-        <v>50</v>
-      </c>
-      <c r="M9">
-        <v>700</v>
-      </c>
-      <c r="N9">
-        <v>300</v>
-      </c>
-      <c r="O9">
-        <v>5000</v>
-      </c>
-      <c r="P9">
-        <v>4</v>
-      </c>
-      <c r="Q9">
-        <v>5</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
       <c r="S9">
         <v>2</v>
       </c>
       <c r="T9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="U9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="V9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
         <v>43</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -2072,69 +3586,69 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K10" t="s">
         <v>7</v>
       </c>
       <c r="L10" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="M10">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N10">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="P10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q10">
         <v>5</v>
       </c>
       <c r="R10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="U10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="V10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -2143,93 +3657,93 @@
         <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K11" t="s">
         <v>7</v>
       </c>
       <c r="L11" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="M11">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N11">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O11">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="P11">
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
         <v>4</v>
       </c>
-      <c r="Q11">
-        <v>3</v>
-      </c>
-      <c r="R11">
-        <v>2</v>
-      </c>
       <c r="S11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="U11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="V11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
       <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
       </c>
       <c r="E12" t="s">
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K12" t="s">
         <v>7</v>
       </c>
       <c r="L12" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="M12">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="N12">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="P12">
         <v>4</v>
@@ -2238,30 +3752,30 @@
         <v>3</v>
       </c>
       <c r="R12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="U12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="V12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -2276,10 +3790,10 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J13">
         <v>4</v>
@@ -2291,39 +3805,39 @@
         <v>8</v>
       </c>
       <c r="M13">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N13">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="O13">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13">
         <v>4</v>
       </c>
-      <c r="R13">
-        <v>1</v>
-      </c>
       <c r="S13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="U13" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="V13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
@@ -2332,149 +3846,149 @@
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14" t="s">
         <v>74</v>
       </c>
       <c r="I14" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K14" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="L14" t="s">
         <v>8</v>
       </c>
       <c r="M14">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="N14">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="O14">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
         <v>3</v>
       </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
       <c r="T14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="U14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="V14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K15" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="L15" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="M15">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N15">
         <v>300</v>
       </c>
       <c r="O15">
-        <v>1500</v>
+        <v>7000</v>
       </c>
       <c r="P15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R15">
         <v>3</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T15" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="V15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
         <v>43</v>
       </c>
       <c r="C16">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -2483,10 +3997,10 @@
         <v>16</v>
       </c>
       <c r="I16" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J16">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K16" t="s">
         <v>49</v>
@@ -2495,54 +4009,54 @@
         <v>25</v>
       </c>
       <c r="M16">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N16">
         <v>300</v>
       </c>
       <c r="O16">
-        <v>20000</v>
+        <v>1500</v>
       </c>
       <c r="P16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q16">
         <v>3</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S16">
         <v>2</v>
       </c>
       <c r="T16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="V16" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C17">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -2554,43 +4068,43 @@
         <v>6</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K17" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="L17" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="M17">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N17">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="O17">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="P17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T17" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="U17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="V17" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -2601,7 +4115,7 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
         <v>30</v>
@@ -2610,7 +4124,7 @@
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2622,54 +4136,54 @@
         <v>6</v>
       </c>
       <c r="J18">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K18" t="s">
         <v>33</v>
       </c>
       <c r="L18" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="M18">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="N18">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="O18">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="P18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="U18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="V18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
         <v>30</v>
@@ -2678,7 +4192,7 @@
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2690,63 +4204,63 @@
         <v>6</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K19" t="s">
         <v>33</v>
       </c>
       <c r="L19" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="M19">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N19">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="P19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
         <v>3</v>
       </c>
-      <c r="S19">
-        <v>2</v>
-      </c>
       <c r="T19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="U19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="V19" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s">
         <v>43</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2758,7 +4272,7 @@
         <v>6</v>
       </c>
       <c r="J20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K20" t="s">
         <v>33</v>
@@ -2767,39 +4281,39 @@
         <v>50</v>
       </c>
       <c r="M20">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N20">
         <v>200</v>
       </c>
       <c r="O20">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S20">
         <v>2</v>
       </c>
       <c r="T20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="U20" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="V20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B21" t="s">
         <v>43</v>
@@ -2814,63 +4328,63 @@
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I21" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K21" t="s">
         <v>33</v>
       </c>
       <c r="L21" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="M21">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N21">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O21">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="P21">
         <v>4</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S21">
         <v>2</v>
       </c>
       <c r="T21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="U21" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="V21" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C22">
         <v>26</v>
@@ -2882,19 +4396,19 @@
         <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G22">
         <v>2</v>
       </c>
       <c r="H22" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="I22" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K22" t="s">
         <v>33</v>
@@ -2903,45 +4417,45 @@
         <v>8</v>
       </c>
       <c r="M22">
+        <v>500</v>
+      </c>
+      <c r="N22">
         <v>400</v>
       </c>
-      <c r="N22">
-        <v>300</v>
-      </c>
       <c r="O22">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S22">
         <v>2</v>
       </c>
       <c r="T22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="U22" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="V22" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -2950,19 +4464,19 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="I23" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K23" t="s">
         <v>33</v>
@@ -2971,45 +4485,45 @@
         <v>8</v>
       </c>
       <c r="M23">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="N23">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="P23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q23">
         <v>5</v>
       </c>
       <c r="R23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T23" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="U23" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="V23" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
       <c r="C24">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
@@ -3018,7 +4532,7 @@
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -3027,10 +4541,10 @@
         <v>5</v>
       </c>
       <c r="I24" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K24" t="s">
         <v>33</v>
@@ -3039,39 +4553,39 @@
         <v>8</v>
       </c>
       <c r="M24">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="N24">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="O24">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T24" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="U24" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="V24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -3092,7 +4606,7 @@
         <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I25" t="s">
         <v>17</v>
@@ -3101,7 +4615,7 @@
         <v>4</v>
       </c>
       <c r="K25" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="L25" t="s">
         <v>8</v>
@@ -3110,42 +4624,42 @@
         <v>500</v>
       </c>
       <c r="N25">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="P25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R25">
         <v>1</v>
       </c>
       <c r="S25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="U25" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="V25" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
@@ -3154,7 +4668,7 @@
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -3166,7 +4680,7 @@
         <v>17</v>
       </c>
       <c r="J26">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K26" t="s">
         <v>7</v>
@@ -3178,51 +4692,51 @@
         <v>500</v>
       </c>
       <c r="N26">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
       <c r="P26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S26">
         <v>4</v>
       </c>
       <c r="T26" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="U26" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="V26" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B27" t="s">
         <v>43</v>
       </c>
       <c r="C27">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -3231,25 +4745,25 @@
         <v>16</v>
       </c>
       <c r="I27" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K27" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="L27" t="s">
         <v>8</v>
       </c>
       <c r="M27">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N27">
         <v>250</v>
       </c>
       <c r="O27">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="P27">
         <v>4</v>
@@ -3261,36 +4775,36 @@
         <v>2</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T27" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U27" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="V27" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B28" t="s">
         <v>43</v>
       </c>
       <c r="C28">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
         <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -3299,7 +4813,7 @@
         <v>16</v>
       </c>
       <c r="I28" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J28">
         <v>4</v>
@@ -3314,16 +4828,16 @@
         <v>200</v>
       </c>
       <c r="N28">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="P28">
         <v>4</v>
       </c>
       <c r="Q28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R28">
         <v>2</v>
@@ -3332,21 +4846,21 @@
         <v>2</v>
       </c>
       <c r="T28" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="U28" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="V28" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>45660.344444444447</v>
+      <c r="A29" t="s">
+        <v>126</v>
       </c>
       <c r="B29" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>26</v>
@@ -3358,81 +4872,81 @@
         <v>22</v>
       </c>
       <c r="F29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29">
         <v>4</v>
       </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
-      <c r="H29" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
       <c r="K29" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="L29" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="M29">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="N29">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="O29">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="P29">
         <v>4</v>
       </c>
       <c r="Q29">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U29" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="V29" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>45660.810416666667</v>
+        <v>45660.344444444447</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
       </c>
       <c r="C30">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G30">
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I30" t="s">
         <v>24</v>
@@ -3441,60 +4955,60 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="L30" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="M30">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N30">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="P30">
+        <v>4</v>
+      </c>
+      <c r="Q30">
         <v>7</v>
       </c>
-      <c r="Q30">
-        <v>4</v>
-      </c>
       <c r="R30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S30">
         <v>3</v>
       </c>
       <c r="T30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="U30" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="V30" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>45660.811111111114</v>
+        <v>45660.810416666667</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
       </c>
       <c r="C31">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -3503,13 +5017,13 @@
         <v>16</v>
       </c>
       <c r="I31" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="L31" t="s">
         <v>8</v>
@@ -3518,51 +5032,51 @@
         <v>300</v>
       </c>
       <c r="N31">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="O31">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="P31">
+        <v>7</v>
+      </c>
+      <c r="Q31">
+        <v>4</v>
+      </c>
+      <c r="R31">
+        <v>5</v>
+      </c>
+      <c r="S31">
         <v>3</v>
       </c>
-      <c r="Q31">
-        <v>7</v>
-      </c>
-      <c r="R31">
-        <v>2</v>
-      </c>
-      <c r="S31">
-        <v>2</v>
-      </c>
       <c r="T31" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="U31" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="V31" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>45660.818055555559</v>
+        <v>45660.811111111114</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E32" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F32" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3571,51 +5085,51 @@
         <v>16</v>
       </c>
       <c r="I32" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K32" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="L32" t="s">
         <v>8</v>
       </c>
       <c r="M32">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N32">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="P32">
         <v>3</v>
       </c>
       <c r="Q32">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R32">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T32" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="U32" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="V32" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>45660.826388888891</v>
+        <v>45660.818055555559</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
@@ -3639,66 +5153,66 @@
         <v>16</v>
       </c>
       <c r="I33" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K33" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="L33" t="s">
         <v>8</v>
       </c>
       <c r="M33">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="N33">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="O33">
         <v>0</v>
       </c>
       <c r="P33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q33">
         <v>3</v>
       </c>
       <c r="R33">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S33">
         <v>1</v>
       </c>
       <c r="T33" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U33" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="V33" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>45660.885416666664</v>
+        <v>45660.826388888891</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3710,7 +5224,7 @@
         <v>17</v>
       </c>
       <c r="J34">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K34" t="s">
         <v>33</v>
@@ -3719,10 +5233,10 @@
         <v>8</v>
       </c>
       <c r="M34">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="N34">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -3731,33 +5245,33 @@
         <v>4</v>
       </c>
       <c r="Q34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T34" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="U34" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="V34" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>45660.919444444444</v>
+        <v>45660.885416666664</v>
       </c>
       <c r="B35" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C35">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -3766,10 +5280,10 @@
         <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" t="s">
         <v>16</v>
@@ -3778,7 +5292,7 @@
         <v>17</v>
       </c>
       <c r="J35">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K35" t="s">
         <v>33</v>
@@ -3787,45 +5301,45 @@
         <v>8</v>
       </c>
       <c r="M35">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N35">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="O35">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="P35">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q35">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="U35" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="V35" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>45780.839583333334</v>
+        <v>45660.919444444444</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
@@ -3834,13 +5348,13 @@
         <v>22</v>
       </c>
       <c r="F36" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I36" t="s">
         <v>17</v>
@@ -3852,42 +5366,42 @@
         <v>33</v>
       </c>
       <c r="L36" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="M36">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="N36">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="O36">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="P36">
+        <v>7</v>
+      </c>
+      <c r="Q36">
+        <v>7</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
         <v>4</v>
       </c>
-      <c r="Q36">
-        <v>4</v>
-      </c>
-      <c r="R36">
-        <v>2</v>
-      </c>
-      <c r="S36">
-        <v>3</v>
-      </c>
       <c r="T36" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U36" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="V36" t="s">
-        <v>148</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>45780.864583333336</v>
+        <v>45780.839583333334</v>
       </c>
       <c r="B37" t="s">
         <v>43</v>
@@ -3902,87 +5416,87 @@
         <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H37" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I37" t="s">
         <v>17</v>
       </c>
       <c r="J37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K37" t="s">
         <v>33</v>
       </c>
       <c r="L37" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="M37">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="N37">
         <v>500</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="P37">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q37">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T37" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="U37" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="V37" t="s">
-        <v>72</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>45780.973611111112</v>
+        <v>45780.864583333336</v>
       </c>
       <c r="B38" t="s">
         <v>43</v>
       </c>
       <c r="C38">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E38" t="s">
         <v>22</v>
       </c>
       <c r="F38" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H38" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38">
         <v>5</v>
-      </c>
-      <c r="I38" t="s">
-        <v>6</v>
-      </c>
-      <c r="J38">
-        <v>4</v>
       </c>
       <c r="K38" t="s">
         <v>33</v>
@@ -3991,113 +5505,113 @@
         <v>8</v>
       </c>
       <c r="M38">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N38">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="O38">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="P38">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q38">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T38" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U38" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="V38" t="s">
-        <v>153</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>45811.35833333333</v>
+        <v>45780.973611111112</v>
       </c>
       <c r="B39" t="s">
         <v>43</v>
       </c>
       <c r="C39">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E39" t="s">
         <v>22</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="G39">
         <v>2</v>
       </c>
       <c r="H39" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I39" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K39" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="L39" t="s">
         <v>8</v>
       </c>
       <c r="M39">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N39">
         <v>200</v>
       </c>
       <c r="O39">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="P39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T39" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="U39" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="V39" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>45811.646527777775</v>
+        <v>45811.35833333333</v>
       </c>
       <c r="B40" t="s">
         <v>43</v>
       </c>
       <c r="C40">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
@@ -4112,54 +5626,54 @@
         <v>2</v>
       </c>
       <c r="H40" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I40" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="J40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K40" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="L40" t="s">
         <v>8</v>
       </c>
       <c r="M40">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N40">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="P40">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q40">
         <v>4</v>
       </c>
       <c r="R40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T40" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="V40" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>45811.662499999999</v>
+        <v>45811.646527777775</v>
       </c>
       <c r="B41" t="s">
         <v>43</v>
@@ -4183,57 +5697,57 @@
         <v>5</v>
       </c>
       <c r="I41" t="s">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K41" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="L41" t="s">
         <v>8</v>
       </c>
       <c r="M41">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N41">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O41">
         <v>0</v>
       </c>
       <c r="P41">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R41">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T41" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="U41" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="V41" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>45811.678472222222</v>
+        <v>45811.662499999999</v>
       </c>
       <c r="B42" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C42">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D42" t="s">
         <v>13</v>
@@ -4251,57 +5765,57 @@
         <v>5</v>
       </c>
       <c r="I42" t="s">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="J42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="L42" t="s">
         <v>8</v>
       </c>
       <c r="M42">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="N42">
-        <v>250</v>
-      </c>
-      <c r="O42" s="2">
-        <v>12500</v>
+        <v>200</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
       </c>
       <c r="P42">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q42">
         <v>5</v>
       </c>
       <c r="R42">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="U42" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="V42" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>45811.802083333336</v>
+        <v>45811.678472222222</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D43" t="s">
         <v>13</v>
@@ -4310,202 +5824,202 @@
         <v>22</v>
       </c>
       <c r="F43" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I43" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J43">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K43" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="L43" t="s">
         <v>8</v>
       </c>
       <c r="M43">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="N43">
-        <v>1000</v>
-      </c>
-      <c r="O43">
-        <v>25000</v>
+        <v>250</v>
+      </c>
+      <c r="O43" s="2">
+        <v>12500</v>
       </c>
       <c r="P43">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R43">
         <v>1</v>
       </c>
       <c r="S43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T43" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="U43" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="V43" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>45841.509027777778</v>
+        <v>45811.802083333336</v>
       </c>
       <c r="B44" t="s">
         <v>43</v>
       </c>
       <c r="C44">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>
       </c>
       <c r="E44" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>136</v>
+        <v>4</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I44" t="s">
-        <v>159</v>
+        <v>6</v>
       </c>
       <c r="J44">
         <v>2</v>
       </c>
       <c r="K44" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="L44" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="M44">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N44">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="P44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R44">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T44" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="U44" t="s">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="V44" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>45841.901388888888</v>
+        <v>45841.509027777778</v>
       </c>
       <c r="B45" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C45">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D45" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="G45">
         <v>2</v>
       </c>
       <c r="H45" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I45" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45" t="s">
+        <v>7</v>
+      </c>
+      <c r="L45" t="s">
+        <v>50</v>
+      </c>
+      <c r="M45">
+        <v>300</v>
+      </c>
+      <c r="N45">
+        <v>300</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
         <v>3</v>
-      </c>
-      <c r="K45" t="s">
-        <v>49</v>
-      </c>
-      <c r="L45" t="s">
-        <v>170</v>
-      </c>
-      <c r="M45">
-        <v>250</v>
-      </c>
-      <c r="N45">
-        <v>250</v>
-      </c>
-      <c r="O45">
-        <v>15000</v>
-      </c>
-      <c r="P45">
-        <v>2</v>
       </c>
       <c r="Q45">
         <v>3</v>
       </c>
       <c r="R45">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T45" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="U45" t="s">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="V45" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>45841.902777777781</v>
+        <v>45841.901388888888</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D46" t="s">
         <v>30</v>
@@ -4514,7 +6028,7 @@
         <v>22</v>
       </c>
       <c r="F46" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4529,51 +6043,51 @@
         <v>3</v>
       </c>
       <c r="K46" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="L46" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="M46">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N46">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="O46">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T46" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="U46" t="s">
-        <v>97</v>
+        <v>172</v>
       </c>
       <c r="V46" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>45841.90347222222</v>
+        <v>45841.902777777781</v>
       </c>
       <c r="B47" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C47">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D47" t="s">
         <v>30</v>
@@ -4582,10 +6096,10 @@
         <v>22</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" t="s">
         <v>16</v>
@@ -4597,7 +6111,7 @@
         <v>3</v>
       </c>
       <c r="K47" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="L47" t="s">
         <v>8</v>
@@ -4609,10 +6123,10 @@
         <v>150</v>
       </c>
       <c r="O47">
-        <v>7600</v>
+        <v>10000</v>
       </c>
       <c r="P47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -4624,27 +6138,27 @@
         <v>1</v>
       </c>
       <c r="T47" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="U47" t="s">
         <v>97</v>
       </c>
       <c r="V47" t="s">
-        <v>61</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>45841.910416666666</v>
+        <v>45841.90347222222</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
       </c>
       <c r="C48">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E48" t="s">
         <v>22</v>
@@ -4653,96 +6167,96 @@
         <v>32</v>
       </c>
       <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48">
         <v>3</v>
       </c>
-      <c r="H48" t="s">
+      <c r="K48" t="s">
+        <v>49</v>
+      </c>
+      <c r="L48" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48">
+        <v>150</v>
+      </c>
+      <c r="N48">
+        <v>150</v>
+      </c>
+      <c r="O48">
+        <v>7600</v>
+      </c>
+      <c r="P48">
         <v>5</v>
       </c>
-      <c r="I48" t="s">
-        <v>38</v>
-      </c>
-      <c r="J48">
-        <v>2</v>
-      </c>
-      <c r="K48" t="s">
-        <v>7</v>
-      </c>
-      <c r="L48" t="s">
-        <v>170</v>
-      </c>
-      <c r="M48">
-        <v>300</v>
-      </c>
-      <c r="N48">
-        <v>300</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48">
-        <v>1</v>
-      </c>
       <c r="Q48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R48">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T48" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U48" t="s">
-        <v>178</v>
+        <v>97</v>
       </c>
       <c r="V48" t="s">
-        <v>179</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>45841.911805555559</v>
+        <v>45841.910416666666</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D49" t="s">
         <v>13</v>
       </c>
       <c r="E49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49">
         <v>3</v>
-      </c>
-      <c r="F49" t="s">
-        <v>136</v>
-      </c>
-      <c r="G49">
-        <v>2</v>
       </c>
       <c r="H49" t="s">
         <v>5</v>
       </c>
       <c r="I49" t="s">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K49" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="L49" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="M49">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N49">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O49">
         <v>0</v>
@@ -4757,27 +6271,27 @@
         <v>7</v>
       </c>
       <c r="S49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T49" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="U49" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="V49" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>45660.863888888889</v>
+        <v>45841.911805555559</v>
       </c>
       <c r="B50" t="s">
         <v>43</v>
       </c>
       <c r="C50">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D50" t="s">
         <v>13</v>
@@ -4786,19 +6300,19 @@
         <v>3</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="G50">
         <v>2</v>
       </c>
       <c r="H50" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I50" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="J50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K50" t="s">
         <v>33</v>
@@ -4806,40 +6320,123 @@
       <c r="L50" t="s">
         <v>8</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M50">
+        <v>100</v>
+      </c>
+      <c r="N50">
+        <v>100</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>7</v>
+      </c>
+      <c r="S50">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s">
+        <v>180</v>
+      </c>
+      <c r="U50" t="s">
+        <v>181</v>
+      </c>
+      <c r="V50" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>45660.863888888889</v>
+      </c>
+      <c r="B51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51">
+        <v>16</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" t="s">
+        <v>38</v>
+      </c>
+      <c r="J51">
+        <v>5</v>
+      </c>
+      <c r="K51" t="s">
+        <v>33</v>
+      </c>
+      <c r="L51" t="s">
+        <v>8</v>
+      </c>
+      <c r="M51" t="s">
         <v>75</v>
       </c>
-      <c r="N50" t="s">
+      <c r="N51" t="s">
         <v>75</v>
       </c>
-      <c r="O50">
+      <c r="O51">
         <v>4000</v>
       </c>
-      <c r="P50">
+      <c r="P51">
         <v>7</v>
       </c>
-      <c r="Q50">
+      <c r="Q51">
         <v>7</v>
       </c>
-      <c r="R50">
-        <v>1</v>
-      </c>
-      <c r="S50">
-        <v>1</v>
-      </c>
-      <c r="T50" t="s">
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="S51">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="U53" t="s">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U54" t="s">
         <v>60</v>
       </c>
-      <c r="V53" t="s">
+      <c r="V54" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA650D4-9FC3-4D0C-8C0D-5BACE6ECFE77}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>